--- a/database/cpu.xlsx
+++ b/database/cpu.xlsx
@@ -9571,7 +9571,7 @@
   <dimension ref="A1:E3011"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2908" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2914" activeCellId="0" sqref="B2914"/>
+      <selection pane="topLeft" activeCell="D2913" activeCellId="0" sqref="D2913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
